--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.7644334015831</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H2">
-        <v>27.7644334015831</v>
+        <v>1147.580718</v>
       </c>
       <c r="I2">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J2">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.9561709998964</v>
+        <v>73.19179533333333</v>
       </c>
       <c r="N2">
-        <v>27.9561709998964</v>
+        <v>219.575386</v>
       </c>
       <c r="O2">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="P2">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="Q2">
-        <v>776.1872478898924</v>
+        <v>27997.83101344524</v>
       </c>
       <c r="R2">
-        <v>776.1872478898924</v>
+        <v>251980.4791210072</v>
       </c>
       <c r="S2">
-        <v>0.08217364641875799</v>
+        <v>0.3830652325621157</v>
       </c>
       <c r="T2">
-        <v>0.08217364641875799</v>
+        <v>0.3830652325621157</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.7644334015831</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H3">
-        <v>27.7644334015831</v>
+        <v>1147.580718</v>
       </c>
       <c r="I3">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J3">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.16695596835128</v>
+        <v>7.224257666666666</v>
       </c>
       <c r="N3">
-        <v>7.16695596835128</v>
+        <v>21.672773</v>
       </c>
       <c r="O3">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378667</v>
       </c>
       <c r="P3">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378668</v>
       </c>
       <c r="Q3">
-        <v>198.9864716753676</v>
+        <v>2763.47293337678</v>
       </c>
       <c r="R3">
-        <v>198.9864716753676</v>
+        <v>24871.25640039102</v>
       </c>
       <c r="S3">
-        <v>0.0210663651200405</v>
+        <v>0.03780972895345812</v>
       </c>
       <c r="T3">
-        <v>0.0210663651200405</v>
+        <v>0.03780972895345812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.7644334015831</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H4">
-        <v>27.7644334015831</v>
+        <v>1147.580718</v>
       </c>
       <c r="I4">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J4">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.5663414963674</v>
+        <v>81.09049733333333</v>
       </c>
       <c r="N4">
-        <v>74.5663414963674</v>
+        <v>243.271492</v>
       </c>
       <c r="O4">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="P4">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="Q4">
-        <v>2070.292222475595</v>
+        <v>31019.29705092125</v>
       </c>
       <c r="R4">
-        <v>2070.292222475595</v>
+        <v>279173.6734582913</v>
       </c>
       <c r="S4">
-        <v>0.2191783767843444</v>
+        <v>0.4244048131092111</v>
       </c>
       <c r="T4">
-        <v>0.2191783767843444</v>
+        <v>0.424404813109211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.7644334015831</v>
+        <v>382.5269060000001</v>
       </c>
       <c r="H5">
-        <v>27.7644334015831</v>
+        <v>1147.580718</v>
       </c>
       <c r="I5">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589805</v>
       </c>
       <c r="J5">
-        <v>0.3299780202710716</v>
+        <v>0.8599069022589803</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.57185086269132</v>
+        <v>2.794787</v>
       </c>
       <c r="N5">
-        <v>2.57185086269132</v>
+        <v>8.384361</v>
       </c>
       <c r="O5">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="P5">
-        <v>0.02290950149261023</v>
+        <v>0.01701012934745599</v>
       </c>
       <c r="Q5">
-        <v>71.40598199599721</v>
+        <v>1069.081224039022</v>
       </c>
       <c r="R5">
-        <v>71.40598199599721</v>
+        <v>9621.731016351199</v>
       </c>
       <c r="S5">
-        <v>0.007559631947928686</v>
+        <v>0.01462712763419545</v>
       </c>
       <c r="T5">
-        <v>0.007559631947928686</v>
+        <v>0.01462712763419545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>56.3758174514133</v>
+        <v>0.4929823333333334</v>
       </c>
       <c r="H6">
-        <v>56.3758174514133</v>
+        <v>1.478947</v>
       </c>
       <c r="I6">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="J6">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.9561709998964</v>
+        <v>73.19179533333333</v>
       </c>
       <c r="N6">
-        <v>27.9561709998964</v>
+        <v>219.575386</v>
       </c>
       <c r="O6">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="P6">
-        <v>0.2490276362990894</v>
+        <v>0.4454729128883617</v>
       </c>
       <c r="Q6">
-        <v>1576.051992930654</v>
+        <v>36.08226204428244</v>
       </c>
       <c r="R6">
-        <v>1576.051992930654</v>
+        <v>324.740358398542</v>
       </c>
       <c r="S6">
-        <v>0.1668539898803314</v>
+        <v>0.0004936761027924864</v>
       </c>
       <c r="T6">
-        <v>0.1668539898803314</v>
+        <v>0.0004936761027924864</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>56.3758174514133</v>
+        <v>0.4929823333333334</v>
       </c>
       <c r="H7">
-        <v>56.3758174514133</v>
+        <v>1.478947</v>
       </c>
       <c r="I7">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="J7">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.16695596835128</v>
+        <v>7.224257666666666</v>
       </c>
       <c r="N7">
-        <v>7.16695596835128</v>
+        <v>21.672773</v>
       </c>
       <c r="O7">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378667</v>
       </c>
       <c r="P7">
-        <v>0.06384172225390898</v>
+        <v>0.04396956095378668</v>
       </c>
       <c r="Q7">
-        <v>404.0430013540887</v>
+        <v>3.561431401114556</v>
       </c>
       <c r="R7">
-        <v>404.0430013540887</v>
+        <v>32.052882610031</v>
       </c>
       <c r="S7">
-        <v>0.04277535713386847</v>
+        <v>4.872736560438621E-05</v>
       </c>
       <c r="T7">
-        <v>0.04277535713386847</v>
+        <v>4.872736560438621E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>56.3758174514133</v>
+        <v>0.4929823333333334</v>
       </c>
       <c r="H8">
-        <v>56.3758174514133</v>
+        <v>1.478947</v>
       </c>
       <c r="I8">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="J8">
-        <v>0.6700219797289283</v>
+        <v>0.001108206780950124</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.5663414963674</v>
+        <v>81.09049733333333</v>
       </c>
       <c r="N8">
-        <v>74.5663414963674</v>
+        <v>243.271492</v>
       </c>
       <c r="O8">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="P8">
-        <v>0.6642211399543912</v>
+        <v>0.4935473968103956</v>
       </c>
       <c r="Q8">
-        <v>4203.738456218953</v>
+        <v>39.97618258654711</v>
       </c>
       <c r="R8">
-        <v>4203.738456218953</v>
+        <v>359.785643278924</v>
       </c>
       <c r="S8">
-        <v>0.4450427631700468</v>
+        <v>0.0005469525718655621</v>
       </c>
       <c r="T8">
-        <v>0.4450427631700468</v>
+        <v>0.000546952571865562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4929823333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.478947</v>
+      </c>
+      <c r="I9">
+        <v>0.001108206780950124</v>
+      </c>
+      <c r="J9">
+        <v>0.001108206780950124</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.794787</v>
+      </c>
+      <c r="N9">
+        <v>8.384361</v>
+      </c>
+      <c r="O9">
+        <v>0.01701012934745599</v>
+      </c>
+      <c r="P9">
+        <v>0.01701012934745599</v>
+      </c>
+      <c r="Q9">
+        <v>1.377780616429667</v>
+      </c>
+      <c r="R9">
+        <v>12.400025547867</v>
+      </c>
+      <c r="S9">
+        <v>1.885074068768944E-05</v>
+      </c>
+      <c r="T9">
+        <v>1.885074068768944E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H10">
+        <v>185.061926</v>
+      </c>
+      <c r="I10">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J10">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>73.19179533333333</v>
+      </c>
+      <c r="N10">
+        <v>219.575386</v>
+      </c>
+      <c r="O10">
+        <v>0.4454729128883617</v>
+      </c>
+      <c r="P10">
+        <v>0.4454729128883617</v>
+      </c>
+      <c r="Q10">
+        <v>4515.004870594827</v>
+      </c>
+      <c r="R10">
+        <v>40635.04383535344</v>
+      </c>
+      <c r="S10">
+        <v>0.0617741206432357</v>
+      </c>
+      <c r="T10">
+        <v>0.0617741206432357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H11">
+        <v>185.061926</v>
+      </c>
+      <c r="I11">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J11">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.224257666666666</v>
+      </c>
+      <c r="N11">
+        <v>21.672773</v>
+      </c>
+      <c r="O11">
+        <v>0.04396956095378667</v>
+      </c>
+      <c r="P11">
+        <v>0.04396956095378668</v>
+      </c>
+      <c r="Q11">
+        <v>445.6450125711998</v>
+      </c>
+      <c r="R11">
+        <v>4010.805113140798</v>
+      </c>
+      <c r="S11">
+        <v>0.006097297690623034</v>
+      </c>
+      <c r="T11">
+        <v>0.006097297690623034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H12">
+        <v>185.061926</v>
+      </c>
+      <c r="I12">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J12">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>81.09049733333333</v>
+      </c>
+      <c r="N12">
+        <v>243.271492</v>
+      </c>
+      <c r="O12">
+        <v>0.4935473968103956</v>
+      </c>
+      <c r="P12">
+        <v>0.4935473968103956</v>
+      </c>
+      <c r="Q12">
+        <v>5002.254538934844</v>
+      </c>
+      <c r="R12">
+        <v>45020.2908504136</v>
+      </c>
+      <c r="S12">
+        <v>0.06844065161232575</v>
+      </c>
+      <c r="T12">
+        <v>0.06844065161232575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>61.68730866666667</v>
+      </c>
+      <c r="H13">
+        <v>185.061926</v>
+      </c>
+      <c r="I13">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="J13">
+        <v>0.1386708795439526</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.794787</v>
+      </c>
+      <c r="N13">
+        <v>8.384361</v>
+      </c>
+      <c r="O13">
+        <v>0.01701012934745599</v>
+      </c>
+      <c r="P13">
+        <v>0.01701012934745599</v>
+      </c>
+      <c r="Q13">
+        <v>172.4028883265873</v>
+      </c>
+      <c r="R13">
+        <v>1551.625994939286</v>
+      </c>
+      <c r="S13">
+        <v>0.002358809597768123</v>
+      </c>
+      <c r="T13">
+        <v>0.002358809597768123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>56.3758174514133</v>
-      </c>
-      <c r="H9">
-        <v>56.3758174514133</v>
-      </c>
-      <c r="I9">
-        <v>0.6700219797289283</v>
-      </c>
-      <c r="J9">
-        <v>0.6700219797289283</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.57185086269132</v>
-      </c>
-      <c r="N9">
-        <v>2.57185086269132</v>
-      </c>
-      <c r="O9">
-        <v>0.02290950149261023</v>
-      </c>
-      <c r="P9">
-        <v>0.02290950149261023</v>
-      </c>
-      <c r="Q9">
-        <v>144.9901947473457</v>
-      </c>
-      <c r="R9">
-        <v>144.9901947473457</v>
-      </c>
-      <c r="S9">
-        <v>0.01534986954468155</v>
-      </c>
-      <c r="T9">
-        <v>0.01534986954468155</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.139687</v>
+      </c>
+      <c r="H14">
+        <v>0.419061</v>
+      </c>
+      <c r="I14">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J14">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>73.19179533333333</v>
+      </c>
+      <c r="N14">
+        <v>219.575386</v>
+      </c>
+      <c r="O14">
+        <v>0.4454729128883617</v>
+      </c>
+      <c r="P14">
+        <v>0.4454729128883617</v>
+      </c>
+      <c r="Q14">
+        <v>10.22394231472733</v>
+      </c>
+      <c r="R14">
+        <v>92.01548083254599</v>
+      </c>
+      <c r="S14">
+        <v>0.0001398835802177645</v>
+      </c>
+      <c r="T14">
+        <v>0.0001398835802177645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.139687</v>
+      </c>
+      <c r="H15">
+        <v>0.419061</v>
+      </c>
+      <c r="I15">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J15">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.224257666666666</v>
+      </c>
+      <c r="N15">
+        <v>21.672773</v>
+      </c>
+      <c r="O15">
+        <v>0.04396956095378667</v>
+      </c>
+      <c r="P15">
+        <v>0.04396956095378668</v>
+      </c>
+      <c r="Q15">
+        <v>1.009134880683667</v>
+      </c>
+      <c r="R15">
+        <v>9.082213926153001</v>
+      </c>
+      <c r="S15">
+        <v>1.38069441011339E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.38069441011339E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.139687</v>
+      </c>
+      <c r="H16">
+        <v>0.419061</v>
+      </c>
+      <c r="I16">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J16">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>81.09049733333333</v>
+      </c>
+      <c r="N16">
+        <v>243.271492</v>
+      </c>
+      <c r="O16">
+        <v>0.4935473968103956</v>
+      </c>
+      <c r="P16">
+        <v>0.4935473968103956</v>
+      </c>
+      <c r="Q16">
+        <v>11.32728830100133</v>
+      </c>
+      <c r="R16">
+        <v>101.945594709012</v>
+      </c>
+      <c r="S16">
+        <v>0.0001549795169932082</v>
+      </c>
+      <c r="T16">
+        <v>0.0001549795169932082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.139687</v>
+      </c>
+      <c r="H17">
+        <v>0.419061</v>
+      </c>
+      <c r="I17">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="J17">
+        <v>0.0003140114161168317</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.794787</v>
+      </c>
+      <c r="N17">
+        <v>8.384361</v>
+      </c>
+      <c r="O17">
+        <v>0.01701012934745599</v>
+      </c>
+      <c r="P17">
+        <v>0.01701012934745599</v>
+      </c>
+      <c r="Q17">
+        <v>0.390395411669</v>
+      </c>
+      <c r="R17">
+        <v>3.513558705021</v>
+      </c>
+      <c r="S17">
+        <v>5.341374804725135E-06</v>
+      </c>
+      <c r="T17">
+        <v>5.341374804725135E-06</v>
       </c>
     </row>
   </sheetData>
